--- a/business-center/wms-center/wms-service/wms-business-chargerules/src/main/resources/template/ChargeOperation.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-chargerules/src/main/resources/template/ChargeOperation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="业务费用基础数据" sheetId="1" r:id="rId1"/>
@@ -280,7 +280,7 @@
     <t>NJ</t>
   </si>
   <si>
-    <t>人民币</t>
+    <t>CNY</t>
   </si>
   <si>
     <t>销毁出库单</t>
@@ -312,15 +312,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,11 +340,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,18 +355,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,54 +379,40 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,9 +431,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,23 +447,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,187 +510,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +753,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,22 +792,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,148 +851,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,21 +1000,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1031,7 +1024,7 @@
     <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1397,7 +1390,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1478,9 +1471,6 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
-      <formula1>"人民币,美元,港币,澳大利亚元,欧元,加拿大币,英镑,日元"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"VIP,注册客户"</formula1>
     </dataValidation>
@@ -1492,6 +1482,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"出库单,入库单,退货单"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+      <formula1>"CNY"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/business-center/wms-center/wms-service/wms-business-chargerules/src/main/resources/template/ChargeOperation.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-chargerules/src/main/resources/template/ChargeOperation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="业务费用基础数据" sheetId="1" r:id="rId1"/>
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>业务费用顺序</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>出库单</t>
+  </si>
+  <si>
+    <t>2021-12-21 01:00:00</t>
   </si>
   <si>
     <t>最小重量(g)</t>
@@ -311,14 +314,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -340,6 +340,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -347,24 +362,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,23 +392,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,22 +447,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -439,32 +463,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,43 +510,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,139 +648,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,15 +749,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -769,6 +760,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,9 +799,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,21 +838,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -835,17 +846,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -854,10 +854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -866,177 +866,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1389,102 +1365,102 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="11.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="3" customWidth="1"/>
-    <col min="8" max="9" width="21.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="21" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
+    <col min="8" max="9" width="21.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:10">
-      <c r="A2" s="9">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="11">
-        <v>44197.5077662037</v>
-      </c>
-      <c r="I2" s="11">
-        <v>44197.5077662037</v>
-      </c>
-      <c r="J2" s="13"/>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" ht="14.25" spans="1:1">
-      <c r="A3" s="9"/>
+      <c r="A3" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+      <formula1>"CNY"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"VIP,注册客户"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"出库单,入库单,退货单"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"NJ,SJ"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"销毁出库单,自提出库单,转运出库单,集运出库单,组合SKU上架出库单,拆分SKU上架出库单,批量出库单,普通销售订单,集运出库单-多SKU,批量出库单-装箱费,批量出库单-贴标费,入库冻结"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"出库单,入库单,退货单"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
-      <formula1>"CNY"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1499,40 +1475,39 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="3" customWidth="1"/>
-    <col min="5" max="6" width="8.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
+    <col min="2" max="3" width="11.375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/business-center/wms-center/wms-service/wms-business-chargerules/src/main/resources/template/ChargeOperation.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-chargerules/src/main/resources/template/ChargeOperation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="业务费用基础数据" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
     <t>客户类型</t>
   </si>
   <si>
-    <t>客户编号</t>
+    <t>客户名称</t>
   </si>
   <si>
     <t>仓库</t>
@@ -340,37 +340,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,6 +355,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -392,25 +377,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,10 +432,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -457,7 +449,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,14 +463,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,79 +510,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,103 +684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,21 +749,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -783,6 +768,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -797,13 +797,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,21 +827,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -846,6 +835,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -854,145 +854,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1365,8 +1365,8 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1447,20 +1447,20 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
-      <formula1>"CNY"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"VIP,注册客户"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"出库单,入库单,退货单"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+      <formula1>"CNY"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"NJ,SJ"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"销毁出库单,自提出库单,转运出库单,集运出库单,组合SKU上架出库单,拆分SKU上架出库单,批量出库单,普通销售订单,集运出库单-多SKU,批量出库单-装箱费,批量出库单-贴标费,入库冻结"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"出库单,入库单,退货单"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1475,7 +1475,7 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
